--- a/documentation/INPUT/Subnet to Site.xlsx
+++ b/documentation/INPUT/Subnet to Site.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhutto\Desktop\DEPLOY SOLUTION\INPUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpheasan/Documents/BlueMetal/clients/FedEx/PsGenericAppInstaller/documentation/INPUT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDCB2BE8-B34F-074E-A902-9BD541A7D06D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="2420" windowWidth="22740" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,65 +25,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Network ID</t>
-  </si>
-  <si>
-    <t>10.44.207.0</t>
-  </si>
-  <si>
-    <t>StartRange</t>
-  </si>
-  <si>
-    <t>EndRange</t>
-  </si>
-  <si>
-    <t>10.44.207.1</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>(STRING)</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>FP1</t>
-  </si>
-  <si>
-    <t>10.44.208.0</t>
-  </si>
-  <si>
-    <t>10.44.208.1</t>
-  </si>
-  <si>
-    <t>10.44.207.254</t>
-  </si>
-  <si>
-    <t>10.44.208.254</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>site1</t>
+  </si>
+  <si>
+    <t>site2</t>
+  </si>
+  <si>
+    <t>site3</t>
+  </si>
+  <si>
+    <t>site4</t>
+  </si>
+  <si>
+    <t>site5</t>
+  </si>
+  <si>
+    <t>10.0.1.0/24</t>
+  </si>
+  <si>
+    <t>10.0.2.0/24</t>
+  </si>
+  <si>
+    <t>10.0.3.0/24</t>
+  </si>
+  <si>
+    <t>10.0.4.0/24</t>
+  </si>
+  <si>
+    <t>10.0.5.0/24</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>Network CIDR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,6 +84,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,11 +112,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,91 +396,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="4" width="21.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>